--- a/Results/Calculation/lda-partial-ner-w2v-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-w2v-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.71</v>
+        <v>0.7284768211920529</v>
       </c>
       <c r="H2">
-        <v>0.59</v>
+        <v>0.5929919137466307</v>
       </c>
       <c r="I2">
         <v>0.67</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>135</v>
@@ -470,19 +470,19 @@
         <v>110</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>0.64</v>
+        <v>0.6416938110749185</v>
       </c>
       <c r="G3">
-        <v>0.89</v>
+        <v>0.9078341013824884</v>
       </c>
       <c r="H3">
-        <v>0.74</v>
+        <v>0.751908396946565</v>
       </c>
       <c r="I3">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.7080745341614907</v>
       </c>
       <c r="G4">
-        <v>0.6899999999999999</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="H4">
-        <v>0.6899999999999999</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>260</v>
@@ -528,19 +528,19 @@
         <v>72</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="G5">
-        <v>0.83</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.6840390879478827</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
